--- a/labyrinthe.xlsx
+++ b/labyrinthe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33633\Desktop\macgyver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503BBD95-5CF8-4971-9F23-911A8EB3D764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F29C06-DEDD-4838-9E18-6601D3A43DDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF811E2E-2E3B-4605-8046-195127EF122E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{810A863E-99F4-4B62-971A-B95CE84261C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,14 @@
     </font>
     <font>
       <b/>
-      <sz val="26"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -52,24 +52,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -77,20 +71,163 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,301 +541,305 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221BEAF8-4E02-4D38-B19D-540549A9DE72}">
-  <dimension ref="A1:S15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57C3D5C-F6AE-406C-852A-27BDA71B321F}">
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="A1:O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="15" width="8.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2">
         <v>1</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="3">
         <v>2</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="3">
         <v>3</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="3">
         <f>C1+1</f>
         <v>4</v>
       </c>
-      <c r="E1" s="1">
-        <f t="shared" ref="E1:U1" si="0">D1+1</f>
+      <c r="E1" s="3">
+        <f t="shared" ref="E1:O1" si="0">D1+1</f>
         <v>5</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="4">
+    <row r="2" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="5">
         <v>16</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <f>A2+1</f>
         <v>17</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <f t="shared" ref="C2:O2" si="1">B2+1</f>
         <v>18</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="6">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="6">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="6">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="6">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="6">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="7">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="6">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="6">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="6">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="8">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="1">
-        <f t="shared" ref="A3:A16" si="2">A2+15</f>
+    <row r="3" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="9">
+        <f t="shared" ref="A3:E15" si="2">A2+15</f>
         <v>31</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <f>B2+15</f>
         <v>32</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <f>C2+15</f>
         <v>33</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <f>D2+15</f>
         <v>34</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <f>E2+15</f>
         <v>35</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="6">
         <f t="shared" ref="F3:O15" si="3">F2+15</f>
         <v>36</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="7">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="7">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="7">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="6">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="7">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="6">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="7">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="6">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="8">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
+      <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="1">
+    <row r="4" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="9">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="B4" s="4">
-        <f t="shared" ref="B4:E16" si="4">B3+15</f>
+      <c r="B4" s="6">
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="C4" s="1">
-        <f t="shared" si="4"/>
+      <c r="C4" s="6">
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="D4" s="4">
-        <f t="shared" si="4"/>
+      <c r="D4" s="6">
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="E4" s="4">
-        <f t="shared" si="4"/>
+      <c r="E4" s="7">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="6">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="6">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="6">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="7">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="10">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="7">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="6">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="8">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="1">
+    <row r="5" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="9">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="B5" s="4">
-        <f t="shared" si="4"/>
+      <c r="B5" s="6">
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="C5" s="1">
-        <f t="shared" si="4"/>
+      <c r="C5" s="7">
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" si="4"/>
+      <c r="D5" s="7">
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="E5" s="1">
-        <f t="shared" si="4"/>
+      <c r="E5" s="7">
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="6">
         <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="7">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="7">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="7">
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="7">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="7">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
@@ -706,7 +847,7 @@
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="7">
         <f t="shared" si="3"/>
         <v>73</v>
       </c>
@@ -714,628 +855,627 @@
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="8">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="1">
+    <row r="6" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="9">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="B6" s="4">
-        <f t="shared" si="4"/>
+      <c r="B6" s="6">
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="C6" s="1">
-        <f t="shared" si="4"/>
+      <c r="C6" s="7">
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="D6" s="4">
-        <f t="shared" si="4"/>
+      <c r="D6" s="6">
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="E6" s="4">
-        <f t="shared" si="4"/>
+      <c r="E6" s="7">
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="6">
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="6">
         <f t="shared" si="3"/>
         <v>83</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="6">
         <f t="shared" si="3"/>
         <v>84</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="6">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="6">
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="6">
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="7">
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="6">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="8">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="1">
+    <row r="7" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="9">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="B7" s="4">
-        <f t="shared" si="4"/>
+      <c r="B7" s="6">
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="C7" s="1">
-        <f t="shared" si="4"/>
+      <c r="C7" s="7">
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="D7" s="4">
-        <f t="shared" si="4"/>
+      <c r="D7" s="6">
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="E7" s="1">
-        <f t="shared" si="4"/>
+      <c r="E7" s="7">
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="6">
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="7">
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="7">
         <f t="shared" si="3"/>
         <v>98</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="7">
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="7">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="7">
         <f t="shared" si="3"/>
         <v>101</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="7">
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="7">
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="6">
         <f t="shared" si="3"/>
         <v>104</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="8">
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="1">
+    <row r="8" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="9">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="B8" s="4">
-        <f t="shared" si="4"/>
+      <c r="B8" s="6">
+        <f t="shared" si="2"/>
         <v>107</v>
       </c>
-      <c r="C8" s="1">
-        <f t="shared" si="4"/>
+      <c r="C8" s="7">
+        <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="D8" s="4">
-        <f t="shared" si="4"/>
+      <c r="D8" s="6">
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
-      <c r="E8" s="1">
-        <f t="shared" si="4"/>
+      <c r="E8" s="7">
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="6">
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="7">
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="6">
         <f t="shared" si="3"/>
         <v>113</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="6">
         <f t="shared" si="3"/>
         <v>114</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="6">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="6">
         <f t="shared" si="3"/>
         <v>116</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="6">
         <f t="shared" si="3"/>
         <v>117</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="6">
         <f t="shared" si="3"/>
         <v>118</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="7">
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="8">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="1">
+    <row r="9" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="9">
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
-      <c r="B9" s="4">
-        <f t="shared" si="4"/>
+      <c r="B9" s="6">
+        <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="C9" s="1">
-        <f t="shared" si="4"/>
+      <c r="C9" s="7">
+        <f t="shared" si="2"/>
         <v>123</v>
       </c>
-      <c r="D9" s="4">
-        <f t="shared" si="4"/>
+      <c r="D9" s="6">
+        <f t="shared" si="2"/>
         <v>124</v>
       </c>
-      <c r="E9" s="1">
-        <f t="shared" si="4"/>
+      <c r="E9" s="6">
+        <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="6">
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="7">
         <f t="shared" si="3"/>
         <v>127</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="6">
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="7">
         <f t="shared" si="3"/>
         <v>129</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="7">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="7">
         <f t="shared" si="3"/>
         <v>131</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="7">
         <f t="shared" si="3"/>
         <v>132</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="6">
         <f t="shared" si="3"/>
         <v>133</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="7">
         <f t="shared" si="3"/>
         <v>134</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="8">
         <f t="shared" si="3"/>
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="1">
+    <row r="10" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="9">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="B10" s="4">
-        <f t="shared" si="4"/>
+      <c r="B10" s="6">
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="C10" s="1">
-        <f t="shared" si="4"/>
+      <c r="C10" s="7">
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="D10" s="4">
-        <f t="shared" si="4"/>
+      <c r="D10" s="7">
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="E10" s="1">
-        <f t="shared" si="4"/>
+      <c r="E10" s="7">
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="7">
         <f t="shared" si="3"/>
         <v>141</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="7">
         <f t="shared" si="3"/>
         <v>142</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="6">
         <f t="shared" si="3"/>
         <v>143</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="7">
         <f t="shared" si="3"/>
         <v>144</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="6">
         <f t="shared" si="3"/>
         <v>145</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="7">
         <f t="shared" si="3"/>
         <v>146</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="6">
         <f t="shared" si="3"/>
         <v>147</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="10">
         <f t="shared" si="3"/>
         <v>148</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="6">
         <f t="shared" si="3"/>
         <v>149</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="8">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="1">
+    <row r="11" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="9">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="B11" s="4">
-        <f t="shared" si="4"/>
+      <c r="B11" s="6">
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="C11" s="1">
-        <f t="shared" si="4"/>
+      <c r="C11" s="6">
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
-      <c r="D11" s="4">
-        <f t="shared" si="4"/>
+      <c r="D11" s="6">
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
-      <c r="E11" s="1">
-        <f t="shared" si="4"/>
+      <c r="E11" s="6">
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="6">
         <f t="shared" si="3"/>
         <v>156</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="6">
         <f t="shared" si="3"/>
         <v>157</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="6">
         <f t="shared" si="3"/>
         <v>158</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="6">
         <f t="shared" si="3"/>
         <v>159</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="6">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="7">
         <f t="shared" si="3"/>
         <v>161</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="6">
         <f t="shared" si="3"/>
         <v>162</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="7">
         <f t="shared" si="3"/>
         <v>163</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="6">
         <f t="shared" si="3"/>
         <v>164</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="8">
         <f t="shared" si="3"/>
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="1">
+    <row r="12" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="9">
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="B12" s="4">
-        <f t="shared" si="4"/>
+      <c r="B12" s="7">
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
-      <c r="C12" s="1">
-        <f t="shared" si="4"/>
+      <c r="C12" s="7">
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="D12" s="4">
-        <f t="shared" si="4"/>
+      <c r="D12" s="7">
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
-      <c r="E12" s="1">
-        <f t="shared" si="4"/>
+      <c r="E12" s="7">
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="7">
         <f t="shared" si="3"/>
         <v>171</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="7">
         <f t="shared" si="3"/>
         <v>172</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="7">
         <f t="shared" si="3"/>
         <v>173</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="7">
         <f t="shared" si="3"/>
         <v>174</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="6">
         <f t="shared" si="3"/>
         <v>175</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="7">
         <f t="shared" si="3"/>
         <v>176</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="6">
         <f t="shared" si="3"/>
         <v>177</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="7">
         <f t="shared" si="3"/>
         <v>178</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="6">
         <f t="shared" si="3"/>
         <v>179</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="8">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="1">
+    <row r="13" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="9">
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
-      <c r="B13" s="4">
-        <f t="shared" si="4"/>
+      <c r="B13" s="6">
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="C13" s="1">
-        <f t="shared" si="4"/>
+      <c r="C13" s="6">
+        <f t="shared" si="2"/>
         <v>183</v>
       </c>
-      <c r="D13" s="4">
-        <f t="shared" si="4"/>
+      <c r="D13" s="7">
+        <f t="shared" si="2"/>
         <v>184</v>
       </c>
-      <c r="E13" s="1">
-        <f t="shared" si="4"/>
+      <c r="E13" s="7">
+        <f t="shared" si="2"/>
         <v>185</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="6">
         <f t="shared" si="3"/>
         <v>186</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="6">
         <f t="shared" si="3"/>
         <v>187</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="6">
         <f t="shared" si="3"/>
         <v>188</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="6">
         <f t="shared" si="3"/>
         <v>189</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="6">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="7">
         <f t="shared" si="3"/>
         <v>191</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="6">
         <f t="shared" si="3"/>
         <v>192</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="7">
         <f t="shared" si="3"/>
         <v>193</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="6">
         <f t="shared" si="3"/>
         <v>194</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="8">
         <f t="shared" si="3"/>
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="1">
+    <row r="14" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="9">
         <f t="shared" si="2"/>
         <v>196</v>
       </c>
-      <c r="B14" s="5">
-        <f t="shared" si="4"/>
+      <c r="B14" s="7">
+        <f t="shared" si="2"/>
         <v>197</v>
       </c>
-      <c r="C14" s="1">
-        <f t="shared" si="4"/>
+      <c r="C14" s="6">
+        <f t="shared" si="2"/>
         <v>198</v>
       </c>
-      <c r="D14" s="4">
-        <f t="shared" si="4"/>
+      <c r="D14" s="6">
+        <f t="shared" si="2"/>
         <v>199</v>
       </c>
-      <c r="E14" s="4">
-        <f t="shared" si="4"/>
+      <c r="E14" s="6">
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="6">
         <f t="shared" si="3"/>
         <v>201</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="7">
         <f t="shared" si="3"/>
         <v>202</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="7">
         <f t="shared" si="3"/>
         <v>203</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="7">
         <f t="shared" si="3"/>
         <v>204</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="7">
         <f t="shared" si="3"/>
         <v>205</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="7">
         <f t="shared" si="3"/>
         <v>206</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="6">
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="6">
         <f t="shared" si="3"/>
         <v>208</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="6">
         <f t="shared" si="3"/>
         <v>209</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="11">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="1">
+    <row r="15" spans="1:17" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="12">
         <f t="shared" si="2"/>
         <v>211</v>
       </c>
-      <c r="B15" s="4">
-        <f t="shared" si="4"/>
+      <c r="B15" s="13">
+        <f t="shared" si="2"/>
         <v>212</v>
       </c>
-      <c r="C15" s="1">
-        <f t="shared" si="4"/>
+      <c r="C15" s="13">
+        <f t="shared" si="2"/>
         <v>213</v>
       </c>
-      <c r="D15" s="1">
-        <f t="shared" si="4"/>
+      <c r="D15" s="13">
+        <f t="shared" si="2"/>
         <v>214</v>
       </c>
-      <c r="E15" s="1">
-        <f t="shared" si="4"/>
+      <c r="E15" s="13">
+        <f t="shared" si="2"/>
         <v>215</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="13">
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="13">
         <f t="shared" si="3"/>
         <v>217</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="13">
         <f t="shared" si="3"/>
         <v>218</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="13">
         <f t="shared" si="3"/>
         <v>219</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="13">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="13">
         <f t="shared" si="3"/>
         <v>221</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="13">
         <f t="shared" si="3"/>
         <v>222</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="13">
         <f t="shared" si="3"/>
         <v>223</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="13">
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="14">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
